--- a/projects/odf_transform/vocabulary/BODC_vocabularies_dictionnary.xlsx
+++ b/projects/odf_transform/vocabulary/BODC_vocabularies_dictionnary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AS\Sync-AS\Sync\1- Operations\13 - Scientific Data Documention\135-Data Special Projects\1351-CCADI\UseCase3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trats\Sync\1- Operations\13 - Scientific Data Documention\135-Data Special Projects\1351-CCADI\UseCase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="270">
   <si>
     <t>BODC Link</t>
   </si>
@@ -138,9 +138,6 @@
     <t>The force per unit area exerted by the water column on a mobile sensor located in the water column.</t>
   </si>
   <si>
-    <t>Sigma-t00</t>
-  </si>
-  <si>
     <t>Sbeox1PS</t>
   </si>
   <si>
@@ -192,27 +189,12 @@
     <t>Sal00</t>
   </si>
   <si>
-    <t>Temperature of oxygen determination by optode</t>
-  </si>
-  <si>
-    <t>SDN:P01::OXYTAAOP</t>
-  </si>
-  <si>
-    <t>O2_temp</t>
-  </si>
-  <si>
     <t>BODC preferred label</t>
   </si>
   <si>
     <t>OxML/L</t>
   </si>
   <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>The vertical dimension through an object or a body of matter measured downward from an upper surface (or top) to its base (or bottom) (e.g. water column depth). Not to be used for depth as a spatial coordinate.</t>
-  </si>
-  <si>
     <t>FlSP</t>
   </si>
   <si>
@@ -354,15 +336,9 @@
     <t>ml/l</t>
   </si>
   <si>
-    <t>PrDM</t>
-  </si>
-  <si>
     <t>CStarTr0</t>
   </si>
   <si>
-    <t>Sbeox0Mm/Kg</t>
-  </si>
-  <si>
     <t>Spar</t>
   </si>
   <si>
@@ -444,33 +420,18 @@
     <t>DensityToBeDefined</t>
   </si>
   <si>
-    <t>OxT</t>
-  </si>
-  <si>
     <t>Upoly0</t>
   </si>
   <si>
-    <t>WetCDOM</t>
-  </si>
-  <si>
     <t>Sbeox0ML/L</t>
   </si>
   <si>
     <t>Sbeox0ML_per_L</t>
   </si>
   <si>
-    <t>DepSMToBeDefined</t>
-  </si>
-  <si>
     <t>µMoles/Kg</t>
   </si>
   <si>
-    <t>SDN:S06::S0600167</t>
-  </si>
-  <si>
-    <t>http://vocab.nerc.ac.uk/collection/S06/current/S0600167/</t>
-  </si>
-  <si>
     <t>spar</t>
   </si>
   <si>
@@ -534,9 +495,6 @@
     <t>http://vocab.nerc.ac.uk/collection/P01/current/ATTNDR01</t>
   </si>
   <si>
-    <t xml:space="preserve"> http://vocab.nerc.ac.uk/collection/P07/current/CFSN0199/</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://vocab.nerc.ac.uk/collection/P01/current/OXYSSU01/ </t>
   </si>
   <si>
@@ -573,9 +531,6 @@
     <t>http://vocab.nerc.ac.uk/collection/P01/current/DWIRRXUD/</t>
   </si>
   <si>
-    <t>http://vocab.nerc.ac.uk/collection/P01/current/CNDCPR01/</t>
-  </si>
-  <si>
     <t>SubSurDWVectPAR</t>
   </si>
   <si>
@@ -585,15 +540,6 @@
     <t>SDN:P01::DWIRRXUD</t>
   </si>
   <si>
-    <t xml:space="preserve">InSituCond </t>
-  </si>
-  <si>
-    <t>SDN:P01::CNDCPR01</t>
-  </si>
-  <si>
-    <t>Electrical conductivity of the water body by in-situ conductivity cell</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Unavailable</t>
   </si>
   <si>
@@ -639,9 +585,6 @@
     <t>POTM</t>
   </si>
   <si>
-    <t>OTMP</t>
-  </si>
-  <si>
     <t>DEPH</t>
   </si>
   <si>
@@ -852,13 +795,46 @@
     <t>LOND</t>
   </si>
   <si>
-    <t>Sigma-t11</t>
-  </si>
-  <si>
     <t>Instrument</t>
   </si>
   <si>
     <t>seabird</t>
+  </si>
+  <si>
+    <t>http://vocab.nerc.ac.uk/collection/P01/current/CNDCST01/</t>
+  </si>
+  <si>
+    <t>SDN:P01::CNDCST01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Electrical conductivity of the water body by CTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTDCond </t>
+  </si>
+  <si>
+    <t>http://vocab.nerc.ac.uk/collection/P01/current/DEPHPR01/</t>
+  </si>
+  <si>
+    <t>CmpDep</t>
+  </si>
+  <si>
+    <t>Depth (spatial coordinate) relative to water surface in the water body by profiling pressure sensor and conversion to seawater depth using UNESCO algorithm</t>
+  </si>
+  <si>
+    <t>SDN:P01::DEPHPR01</t>
+  </si>
+  <si>
+    <t>prDM</t>
+  </si>
+  <si>
+    <t>sigma-t00</t>
+  </si>
+  <si>
+    <t>sigma-t11</t>
+  </si>
+  <si>
+    <t>sbeox0Mm/Kg</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1062,8 +1038,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
@@ -1116,16 +1090,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1435,51 +1399,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13" style="62" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" style="56" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
     <col min="9" max="9" width="51" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
     <col min="11" max="11" width="54" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>260</v>
+        <v>256</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>241</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -1488,30 +1453,30 @@
         <v>1</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="62">
+        <v>257</v>
+      </c>
+      <c r="C2" s="56">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>26</v>
@@ -1523,681 +1488,735 @@
         <v>26</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="63">
+        <v>257</v>
+      </c>
+      <c r="C3" s="57">
         <v>1</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="32" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="63">
+        <v>257</v>
+      </c>
+      <c r="C4" s="57">
         <v>1</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="32" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="64">
+    <row r="5" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="58">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="E5"/>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="58">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="59">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="58">
+        <v>1</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="58">
+        <v>1</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="58">
+        <v>1</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="58">
+        <v>1</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="58">
+        <v>1</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="58">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="64">
+      <c r="H13" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="58">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" s="42" t="s">
+      <c r="D14" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="58">
+        <v>1</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="J6" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="L6" s="42" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="65">
+      <c r="G17" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="58">
         <v>1</v>
       </c>
-      <c r="D7" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>178</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="42" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="64">
+      <c r="D19" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="K21" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="58">
         <v>1</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="42" t="s">
+      <c r="D22" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" t="s">
         <v>100</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="64">
-        <v>1</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="K9" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="L9" s="42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="64">
-        <v>1</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="64">
-        <v>1</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="L11" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="64">
-        <v>1</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="K12" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" s="64">
-        <v>1</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="64">
-        <v>1</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="K14" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="42" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C15" s="64">
-        <v>1</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="J15" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="K15" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="L16" s="42" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="K17" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="L17" s="42" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="42" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="64">
-        <v>1</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="J19" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="K19" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="60"/>
-    </row>
-    <row r="21" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="60"/>
-    </row>
-    <row r="22" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="65">
-        <v>1</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="60"/>
-    </row>
-    <row r="23" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="60"/>
-    </row>
-    <row r="24" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="G24" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" t="s">
-        <v>201</v>
-      </c>
-      <c r="F25" t="s">
-        <v>106</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>23</v>
@@ -2209,676 +2228,646 @@
         <v>25</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="52"/>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>171</v>
+      <c r="I26" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" s="52"/>
+        <v>257</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="50"/>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="J27" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" t="s">
-        <v>204</v>
-      </c>
-      <c r="F28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="K30" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="50"/>
+      <c r="F31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" t="s">
-        <v>205</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="K30" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L31" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" s="52"/>
-      <c r="F32" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" t="s">
-        <v>76</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="B32" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="J32" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" t="s">
-        <v>77</v>
-      </c>
-      <c r="L32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
-      </c>
-      <c r="D34" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="H34" t="s">
         <v>110</v>
       </c>
-      <c r="I34" s="39" t="s">
-        <v>162</v>
+      <c r="I34" t="s">
+        <v>127</v>
       </c>
       <c r="J34" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="K34" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>277</v>
+        <v>257</v>
+      </c>
+      <c r="D35" t="s">
+        <v>191</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="I35" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J35" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
-      </c>
-      <c r="D36" t="s">
-        <v>210</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="21"/>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="E37" t="s">
+        <v>198</v>
+      </c>
       <c r="F37" t="s">
         <v>102</v>
       </c>
       <c r="H37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I37" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J37" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K37" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" t="s">
+        <v>127</v>
+      </c>
+      <c r="K38" t="s">
+        <v>127</v>
+      </c>
+      <c r="L38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" t="s">
         <v>114</v>
       </c>
-      <c r="B38" t="s">
-        <v>277</v>
-      </c>
-      <c r="E38" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" t="s">
+        <v>127</v>
+      </c>
+      <c r="K39" t="s">
+        <v>127</v>
+      </c>
+      <c r="L39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" t="s">
+        <v>127</v>
+      </c>
+      <c r="K40" t="s">
+        <v>127</v>
+      </c>
+      <c r="L40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" t="s">
+        <v>219</v>
+      </c>
+      <c r="J42" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>119</v>
       </c>
-      <c r="I38" t="s">
-        <v>135</v>
-      </c>
-      <c r="J38" t="s">
-        <v>135</v>
-      </c>
-      <c r="K38" t="s">
-        <v>135</v>
-      </c>
-      <c r="L38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" t="s">
-        <v>212</v>
-      </c>
-      <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" t="s">
-        <v>135</v>
-      </c>
-      <c r="J39" t="s">
-        <v>135</v>
-      </c>
-      <c r="K39" t="s">
-        <v>135</v>
-      </c>
-      <c r="L39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D40" t="s">
-        <v>213</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="B43" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" t="s">
         <v>122</v>
       </c>
-      <c r="H40" t="s">
-        <v>117</v>
-      </c>
-      <c r="I40" t="s">
-        <v>135</v>
-      </c>
-      <c r="J40" t="s">
-        <v>135</v>
-      </c>
-      <c r="K40" t="s">
-        <v>135</v>
-      </c>
-      <c r="L40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" t="s">
-        <v>277</v>
-      </c>
-      <c r="D41" t="s">
-        <v>214</v>
-      </c>
-      <c r="F41" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" t="s">
-        <v>138</v>
-      </c>
-      <c r="I41" t="s">
-        <v>135</v>
-      </c>
-      <c r="J41" t="s">
-        <v>135</v>
-      </c>
-      <c r="K41" t="s">
-        <v>135</v>
-      </c>
-      <c r="L41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="H43" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B42" t="s">
-        <v>277</v>
-      </c>
-      <c r="D42" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" t="s">
-        <v>98</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="I43" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" t="s">
+        <v>95</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J44" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
-        <v>277</v>
-      </c>
-      <c r="D43" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I43" t="s">
-        <v>238</v>
-      </c>
-      <c r="J43" t="s">
-        <v>135</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" t="s">
-        <v>277</v>
-      </c>
-      <c r="D44" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" s="21" t="s">
+      <c r="I45" t="s">
+        <v>127</v>
+      </c>
+      <c r="J45" t="s">
+        <v>127</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>132</v>
       </c>
-      <c r="I44" t="s">
-        <v>135</v>
-      </c>
-      <c r="J44" t="s">
-        <v>135</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" t="s">
-        <v>277</v>
-      </c>
-      <c r="D45" t="s">
-        <v>198</v>
-      </c>
-      <c r="F45" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" s="21" t="s">
+      <c r="B46" t="s">
+        <v>257</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" t="s">
         <v>133</v>
       </c>
-      <c r="I45" t="s">
-        <v>238</v>
-      </c>
-      <c r="J45" t="s">
-        <v>135</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="L45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" t="s">
-        <v>277</v>
-      </c>
-      <c r="D46" t="s">
-        <v>198</v>
-      </c>
-      <c r="F46" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="I46" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J46" t="s">
-        <v>135</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
+      </c>
+      <c r="K46" t="s">
+        <v>127</v>
       </c>
       <c r="L46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" t="s">
-        <v>277</v>
-      </c>
-      <c r="F47" t="s">
-        <v>108</v>
-      </c>
-      <c r="H47" t="s">
-        <v>143</v>
-      </c>
-      <c r="I47" t="s">
-        <v>135</v>
-      </c>
-      <c r="J47" t="s">
-        <v>135</v>
-      </c>
-      <c r="K47" t="s">
-        <v>135</v>
-      </c>
-      <c r="L47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="67"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="68"/>
-      <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="68"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I62" s="11"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="61"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="62"/>
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="62"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I61" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I31" r:id="rId1"/>
+    <hyperlink ref="I30" r:id="rId1"/>
     <hyperlink ref="I10" r:id="rId2"/>
     <hyperlink ref="I17" r:id="rId3"/>
     <hyperlink ref="I5" r:id="rId4"/>
@@ -2891,22 +2880,27 @@
     <hyperlink ref="I26" r:id="rId11"/>
     <hyperlink ref="I27" r:id="rId12"/>
     <hyperlink ref="I8" r:id="rId13"/>
-    <hyperlink ref="I29" r:id="rId14"/>
-    <hyperlink ref="I30" r:id="rId15"/>
-    <hyperlink ref="I33" r:id="rId16"/>
-    <hyperlink ref="I32" r:id="rId17"/>
-    <hyperlink ref="I34" r:id="rId18"/>
-    <hyperlink ref="I42" r:id="rId19"/>
+    <hyperlink ref="I28" r:id="rId14"/>
+    <hyperlink ref="I29" r:id="rId15"/>
+    <hyperlink ref="I32" r:id="rId16"/>
+    <hyperlink ref="I31" r:id="rId17"/>
+    <hyperlink ref="I33" r:id="rId18"/>
+    <hyperlink ref="I41" r:id="rId19"/>
     <hyperlink ref="I12" r:id="rId20"/>
-    <hyperlink ref="I19" r:id="rId21"/>
-    <hyperlink ref="I6" r:id="rId22"/>
-    <hyperlink ref="I14" r:id="rId23"/>
-    <hyperlink ref="I9" r:id="rId24"/>
-    <hyperlink ref="I11" r:id="rId25"/>
-    <hyperlink ref="I7" r:id="rId26"/>
+    <hyperlink ref="I6" r:id="rId21"/>
+    <hyperlink ref="I14" r:id="rId22"/>
+    <hyperlink ref="I9" r:id="rId23"/>
+    <hyperlink ref="I11" r:id="rId24"/>
+    <hyperlink ref="I7" r:id="rId25"/>
+    <hyperlink ref="I19" r:id="rId26"/>
+    <hyperlink ref="I20" r:id="rId27"/>
+    <hyperlink ref="I21" r:id="rId28"/>
+    <hyperlink ref="I22" r:id="rId29"/>
+    <hyperlink ref="I23" r:id="rId30"/>
+    <hyperlink ref="I24" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId27"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -2918,154 +2912,154 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
       <c r="F35" s="11"/>
     </row>
   </sheetData>

--- a/projects/odf_transform/vocabulary/BODC_vocabularies_dictionnary.xlsx
+++ b/projects/odf_transform/vocabulary/BODC_vocabularies_dictionnary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="274">
   <si>
     <t>BODC Link</t>
   </si>
@@ -144,18 +144,6 @@
     <t>BK_SBE43</t>
   </si>
   <si>
-    <t>WC_dissO2_calib</t>
-  </si>
-  <si>
-    <t>http://vocab.nerc.ac.uk/collection/P01/current/DOXYSC01/</t>
-  </si>
-  <si>
-    <t>SDN:P01::DOXYSC01</t>
-  </si>
-  <si>
-    <t>Concentration of oxygen {O2 CAS 7782-44-7} per unit volume of the water body [dissolved plus reactive particulate phase] by Sea-Bird SBE 43 sensor and calibration against sample data</t>
-  </si>
-  <si>
     <t>Potential temperature of the water body by CTD and computation from pressure</t>
   </si>
   <si>
@@ -198,21 +186,6 @@
     <t>FlSP</t>
   </si>
   <si>
-    <t>SDN:P01::FLUOZZZZ</t>
-  </si>
-  <si>
-    <t>The amount of radiation generated in the water column in response to higher energy radiation transmission expressed relative to an unspecified baseline.</t>
-  </si>
-  <si>
-    <t>Fluorescence of the water body</t>
-  </si>
-  <si>
-    <t>http://vocab.nerc.ac.uk/collection/P01/current/FLUOZZZZ/</t>
-  </si>
-  <si>
-    <t>Fluo</t>
-  </si>
-  <si>
     <t>Fluorescence of the water body by linear-response CDOM fluorometer</t>
   </si>
   <si>
@@ -246,9 +219,6 @@
     <t>SDN:P01::DOXYZZXX</t>
   </si>
   <si>
-    <t>Concentration of dissolved oxygen per unit volume of the water column. Oxygen may be expressed in terms of mass</t>
-  </si>
-  <si>
     <t>http://vocab.nerc.ac.uk/collection/P01/current/DOXYZZXX/</t>
   </si>
   <si>
@@ -267,9 +237,6 @@
     <t>Saturation of oxygen {O2 CAS 7782-44-7} in the water body [dissolved plus reactive particulate phase] by Sea-Bird SBE 43 sensor and calibration against sample data and computation from concentration using Benson and Krause algorithm</t>
   </si>
   <si>
-    <t>Sea-Bird SBE 43 oxygen sensor calibrated against sample data collected in the field (usually Winkler titrations on sample data)</t>
-  </si>
-  <si>
     <t>DepSM</t>
   </si>
   <si>
@@ -835,12 +802,60 @@
   </si>
   <si>
     <t>sbeox0Mm/Kg</t>
+  </si>
+  <si>
+    <t>Sbeox0PS</t>
+  </si>
+  <si>
+    <t>Potemp168</t>
+  </si>
+  <si>
+    <t>Potemp090</t>
+  </si>
+  <si>
+    <t>Potemp190</t>
+  </si>
+  <si>
+    <t>http://vocab.nerc.ac.uk/collection/P01/current/CPHLPR01/</t>
+  </si>
+  <si>
+    <t>chl-a_water_ISfluor</t>
+  </si>
+  <si>
+    <t>SDN:P01::CPHLPR01</t>
+  </si>
+  <si>
+    <t>Concentration of chlorophyll-a {chl-a CAS 479-61-8} per unit volume of the water body [particulate &gt;unknown phase] by in-situ chlorophyll fluorometer</t>
+  </si>
+  <si>
+    <t>In-situ fluorometer with either manufacturer, laboratory or sample calibration applied.</t>
+  </si>
+  <si>
+    <t>Concentration of oxygen {O2 CAS 7782-44-7} per unit volume of the water body [dissolved plus reactive particulate phase] by Sea-Bird SBE 43 sensor and no calibration against sample data</t>
+  </si>
+  <si>
+    <t>Sea-Bird SBE 43 oxygen sensor with no field calibration against sample data</t>
+  </si>
+  <si>
+    <t>http://vocab.nerc.ac.uk/collection/P01/current/DOXYSU01/</t>
+  </si>
+  <si>
+    <t>SDN:P01::DOXYSU01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WC_dissO2_uncalib </t>
+  </si>
+  <si>
+    <t>Sbeox0Mm/L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -992,18 +1007,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1012,23 +1021,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1118,6 +1119,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1399,17 +1415,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13" style="56" customWidth="1"/>
+    <col min="3" max="3" width="13" style="50" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
@@ -1417,34 +1433,34 @@
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
     <col min="9" max="9" width="51" customWidth="1"/>
     <col min="10" max="10" width="21.5546875" customWidth="1"/>
-    <col min="11" max="11" width="54" customWidth="1"/>
+    <col min="11" max="11" width="59.88671875" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>82</v>
+      <c r="A1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
@@ -1452,8 +1468,8 @@
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>54</v>
+      <c r="K1" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>33</v>
@@ -1464,1410 +1480,1536 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="56">
+        <v>246</v>
+      </c>
+      <c r="C2" s="50">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="51">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="52">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="52">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="53">
+        <v>1</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="34" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="52">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="52">
+        <v>1</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="52">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="52">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="52">
+        <v>1</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="52">
+        <v>1</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="52">
+        <v>1</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="52">
+        <v>1</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="57">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="52">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D19" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="52">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="60"/>
+    </row>
+    <row r="27" spans="1:12" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="21" t="s">
+      <c r="E27" s="61"/>
+      <c r="F27" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="57">
+    <row r="28" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="52">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="21" t="s">
+      <c r="D28" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="64"/>
+      <c r="F28" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="52">
+        <v>1</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="64"/>
+      <c r="F29" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="67">
+        <v>1.00024</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="64"/>
+      <c r="F30" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" s="67">
+        <v>1.00024</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="64"/>
+      <c r="F31" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L32" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="33" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K34" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" s="58">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="L34" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="58">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="59">
-        <v>1</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="J7" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="58">
-        <v>1</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="58">
-        <v>1</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10" s="58">
-        <v>1</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="58">
-        <v>1</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="J11" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="58">
-        <v>1</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="58">
-        <v>1</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="58">
-        <v>1</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J14" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="58">
-        <v>1</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="J15" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="L17" s="40" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="58">
-        <v>1</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C20" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="L20" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="J21" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="K21" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="58">
-        <v>1</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="K22" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="L22" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="K23" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="L23" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="J24" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="K24" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="L24" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="50"/>
-      <c r="F26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="50"/>
-      <c r="F27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="K28" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="L28" s="40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="50"/>
-      <c r="F31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31" t="s">
-        <v>71</v>
-      </c>
-      <c r="L31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" t="s">
-        <v>257</v>
-      </c>
-      <c r="D33" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" t="s">
-        <v>103</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="J33" t="s">
-        <v>150</v>
-      </c>
-      <c r="K33" t="s">
-        <v>127</v>
-      </c>
-      <c r="L33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>269</v>
-      </c>
-      <c r="B34" t="s">
-        <v>257</v>
-      </c>
-      <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" t="s">
-        <v>110</v>
-      </c>
-      <c r="I34" t="s">
-        <v>127</v>
-      </c>
-      <c r="J34" t="s">
-        <v>127</v>
-      </c>
-      <c r="K34" t="s">
-        <v>127</v>
-      </c>
-      <c r="L34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" t="s">
-        <v>257</v>
-      </c>
-      <c r="D35" t="s">
-        <v>191</v>
-      </c>
-      <c r="F35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" t="s">
-        <v>127</v>
-      </c>
-      <c r="J35" t="s">
-        <v>127</v>
-      </c>
-      <c r="K35" t="s">
-        <v>127</v>
-      </c>
-      <c r="L35" t="s">
-        <v>127</v>
-      </c>
+    </row>
+    <row r="35" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s">
-        <v>257</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" s="21"/>
+        <v>246</v>
+      </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="H36" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I36" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="K36" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L36" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
-      </c>
-      <c r="E37" t="s">
-        <v>198</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="44"/>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" t="s">
-        <v>127</v>
-      </c>
-      <c r="J37" t="s">
-        <v>127</v>
+        <v>61</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="K37" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="L37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" t="s">
-        <v>257</v>
-      </c>
-      <c r="D38" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" t="s">
-        <v>107</v>
-      </c>
-      <c r="I38" t="s">
-        <v>127</v>
-      </c>
-      <c r="J38" t="s">
-        <v>127</v>
-      </c>
-      <c r="K38" t="s">
-        <v>127</v>
-      </c>
-      <c r="L38" t="s">
-        <v>127</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="54"/>
+      <c r="D38" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F39" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="H39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I39" t="s">
-        <v>127</v>
+        <v>92</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="J39" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K39" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L39" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H40" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="K40" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" t="s">
-        <v>257</v>
-      </c>
-      <c r="D41" t="s">
-        <v>196</v>
-      </c>
-      <c r="F41" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" t="s">
-        <v>34</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>257</v>
-      </c>
-      <c r="D42" t="s">
-        <v>180</v>
+        <v>246</v>
+      </c>
+      <c r="E42" t="s">
+        <v>187</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>123</v>
+        <v>91</v>
+      </c>
+      <c r="H42" t="s">
+        <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
+      </c>
+      <c r="K42" t="s">
+        <v>116</v>
       </c>
       <c r="L42" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>96</v>
       </c>
       <c r="I43" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="J43" t="s">
-        <v>127</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
+      </c>
+      <c r="K43" t="s">
+        <v>116</v>
       </c>
       <c r="L43" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>125</v>
+        <v>103</v>
+      </c>
+      <c r="H44" t="s">
+        <v>98</v>
       </c>
       <c r="I44" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="J44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>129</v>
+        <v>116</v>
+      </c>
+      <c r="K44" t="s">
+        <v>116</v>
       </c>
       <c r="L44" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F45" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>126</v>
+        <v>81</v>
+      </c>
+      <c r="H45" t="s">
+        <v>119</v>
       </c>
       <c r="I45" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="J45" t="s">
-        <v>127</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>129</v>
+        <v>116</v>
+      </c>
+      <c r="K45" t="s">
+        <v>116</v>
       </c>
       <c r="L45" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>257</v>
+        <v>246</v>
+      </c>
+      <c r="D46" t="s">
+        <v>185</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" t="s">
-        <v>127</v>
-      </c>
-      <c r="J46" t="s">
-        <v>127</v>
-      </c>
-      <c r="K46" t="s">
-        <v>127</v>
+        <v>81</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="L46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="61"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="62"/>
-      <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="62"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I61" s="11"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" t="s">
+        <v>208</v>
+      </c>
+      <c r="J47" t="s">
+        <v>116</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" t="s">
+        <v>116</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>246</v>
+      </c>
+      <c r="D49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" t="s">
+        <v>208</v>
+      </c>
+      <c r="J49" t="s">
+        <v>116</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F50" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50" t="s">
+        <v>116</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s">
+        <v>246</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51" t="s">
+        <v>116</v>
+      </c>
+      <c r="K51" t="s">
+        <v>116</v>
+      </c>
+      <c r="L51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="55"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="56"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="56"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I30" r:id="rId1"/>
+    <hyperlink ref="I34" r:id="rId1"/>
     <hyperlink ref="I10" r:id="rId2"/>
     <hyperlink ref="I17" r:id="rId3"/>
     <hyperlink ref="I5" r:id="rId4"/>
@@ -2877,30 +3019,33 @@
     <hyperlink ref="I15" r:id="rId8"/>
     <hyperlink ref="I25" r:id="rId9"/>
     <hyperlink ref="I13" r:id="rId10"/>
-    <hyperlink ref="I26" r:id="rId11"/>
-    <hyperlink ref="I27" r:id="rId12"/>
-    <hyperlink ref="I8" r:id="rId13"/>
-    <hyperlink ref="I28" r:id="rId14"/>
-    <hyperlink ref="I29" r:id="rId15"/>
-    <hyperlink ref="I32" r:id="rId16"/>
-    <hyperlink ref="I31" r:id="rId17"/>
-    <hyperlink ref="I33" r:id="rId18"/>
-    <hyperlink ref="I41" r:id="rId19"/>
-    <hyperlink ref="I12" r:id="rId20"/>
-    <hyperlink ref="I6" r:id="rId21"/>
-    <hyperlink ref="I14" r:id="rId22"/>
-    <hyperlink ref="I9" r:id="rId23"/>
-    <hyperlink ref="I11" r:id="rId24"/>
-    <hyperlink ref="I7" r:id="rId25"/>
-    <hyperlink ref="I19" r:id="rId26"/>
-    <hyperlink ref="I20" r:id="rId27"/>
-    <hyperlink ref="I21" r:id="rId28"/>
-    <hyperlink ref="I22" r:id="rId29"/>
-    <hyperlink ref="I23" r:id="rId30"/>
-    <hyperlink ref="I24" r:id="rId31"/>
+    <hyperlink ref="I27" r:id="rId11"/>
+    <hyperlink ref="I8" r:id="rId12"/>
+    <hyperlink ref="I32" r:id="rId13"/>
+    <hyperlink ref="I33" r:id="rId14"/>
+    <hyperlink ref="I39" r:id="rId15"/>
+    <hyperlink ref="I46" r:id="rId16"/>
+    <hyperlink ref="I12" r:id="rId17"/>
+    <hyperlink ref="I6" r:id="rId18"/>
+    <hyperlink ref="I14" r:id="rId19"/>
+    <hyperlink ref="I9" r:id="rId20"/>
+    <hyperlink ref="I11" r:id="rId21"/>
+    <hyperlink ref="I7" r:id="rId22"/>
+    <hyperlink ref="I19" r:id="rId23"/>
+    <hyperlink ref="I20" r:id="rId24"/>
+    <hyperlink ref="I21" r:id="rId25"/>
+    <hyperlink ref="I22" r:id="rId26"/>
+    <hyperlink ref="I23" r:id="rId27"/>
+    <hyperlink ref="I24" r:id="rId28"/>
+    <hyperlink ref="I28" r:id="rId29"/>
+    <hyperlink ref="I29" r:id="rId30"/>
+    <hyperlink ref="I31" r:id="rId31"/>
+    <hyperlink ref="I30" r:id="rId32"/>
+    <hyperlink ref="I37" r:id="rId33"/>
+    <hyperlink ref="I38" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -2919,148 +3064,148 @@
   <sheetData>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>143</v>
+      <c r="A12" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" t="s">
-        <v>159</v>
-      </c>
-    </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
-        <v>152</v>
+      <c r="A18" s="32" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="11" t="s">
-        <v>155</v>
+      <c r="D20" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>223</v>
+      <c r="A30" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="F35" s="11"/>
+      <c r="A35" s="32"/>
+      <c r="F35" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
